--- a/Dados_da_Saude.xlsx
+++ b/Dados_da_Saude.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Distrito</t>
   </si>
@@ -171,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -231,11 +231,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -262,6 +273,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -544,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -875,6 +889,43 @@
       </c>
       <c r="I11" s="8">
         <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>3508</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:I12" si="0">SUM(C2:C11)</f>
+        <v>687</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>677</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>824</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>6171</v>
       </c>
     </row>
   </sheetData>
@@ -892,6 +943,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">

--- a/Dados_da_Saude.xlsx
+++ b/Dados_da_Saude.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Distrito</t>
   </si>
@@ -561,7 +561,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -892,41 +892,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <f>SUM(B2:B11)</f>
-        <v>3508</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:I12" si="0">SUM(C2:C11)</f>
-        <v>687</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>677</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>824</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>6171</v>
-      </c>
+      <c r="A12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados_da_Saude.xlsx
+++ b/Dados_da_Saude.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tipo_Viol" sheetId="1" r:id="rId1"/>
-    <sheet name="Notif" sheetId="2" r:id="rId2"/>
-    <sheet name="Morte_Arma" sheetId="3" r:id="rId3"/>
+    <sheet name="Tipo_Viol_pivot" sheetId="4" r:id="rId2"/>
+    <sheet name="Notif" sheetId="2" r:id="rId3"/>
+    <sheet name="Morte_Arma" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="33">
   <si>
     <t>Distrito</t>
   </si>
@@ -119,6 +120,12 @@
   </si>
   <si>
     <t>15 a 19 anos</t>
+  </si>
+  <si>
+    <t>Tipo de Violência</t>
+  </si>
+  <si>
+    <t>Ocorrências</t>
   </si>
 </sst>
 </file>
@@ -171,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -231,22 +238,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -273,9 +269,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -558,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,9 +884,6 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -901,6 +891,916 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72:C81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="5">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="5">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="5">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="8">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="8">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -941,7 +1841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
